--- a/data_migration/exports/sale.xlsx
+++ b/data_migration/exports/sale.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-09-18 14:49:36.787404-04:00</t>
+          <t>2022-09-18 14:49:36.787404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-09-18 14:49:36.787404-04:00</t>
+          <t>2022-09-18 14:49:36.787404</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -511,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-09-18 14:54:36.993277-04:00</t>
+          <t>2022-09-18 14:54:36.993277</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-09-18 14:54:36.993277-04:00</t>
+          <t>2022-09-18 14:54:36.993277</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -541,12 +541,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-09-18 14:55:04.342370-04:00</t>
+          <t>2022-09-18 14:55:04.342370</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-09-18 14:55:04.342370-04:00</t>
+          <t>2022-09-18 14:55:04.342370</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-09-18 14:56:50.517942-04:00</t>
+          <t>2022-09-18 14:56:50.517942</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-09-18 14:56:50.517942-04:00</t>
+          <t>2022-09-18 14:56:50.517942</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-09-18 14:58:54.029387-04:00</t>
+          <t>2022-09-18 14:58:54.029387</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022-09-18 14:58:54.029387-04:00</t>
+          <t>2022-09-18 14:58:54.029387</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -631,12 +631,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-09-18 15:00:05.898898-04:00</t>
+          <t>2022-09-18 15:00:05.898898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-09-18 15:00:05.898898-04:00</t>
+          <t>2022-09-18 15:00:05.898898</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -661,12 +661,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-09-18 15:26:35.112159-04:00</t>
+          <t>2022-09-18 15:26:35.112159</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022-09-18 15:26:35.112159-04:00</t>
+          <t>2022-09-18 15:26:35.112159</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -691,12 +691,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-09-18 15:27:35.407921-04:00</t>
+          <t>2022-09-18 15:27:35.407921</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-09-18 15:27:35.407921-04:00</t>
+          <t>2022-09-18 15:27:35.407921</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -721,12 +721,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-09-18 15:37:09.563504-04:00</t>
+          <t>2022-09-18 15:37:09.563504</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022-09-18 15:37:09.563504-04:00</t>
+          <t>2022-09-18 15:37:09.563504</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -751,12 +751,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-09-18 15:37:45.396268-04:00</t>
+          <t>2022-09-18 15:37:45.396268</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-09-18 15:37:45.396268-04:00</t>
+          <t>2022-09-18 15:37:45.396268</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -781,12 +781,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-09-18 15:39:57.784242-04:00</t>
+          <t>2022-09-18 15:39:57.784242</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022-09-18 15:39:57.784242-04:00</t>
+          <t>2022-09-18 15:39:57.784242</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -811,12 +811,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-09-18 15:40:05.754537-04:00</t>
+          <t>2022-09-18 15:40:05.754537</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022-09-18 15:40:05.754537-04:00</t>
+          <t>2022-09-18 15:40:05.754537</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -841,12 +841,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-09-18 15:54:30.928101-04:00</t>
+          <t>2022-09-18 15:54:30.928101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022-09-18 15:54:30.928101-04:00</t>
+          <t>2022-09-18 15:54:30.928101</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -871,12 +871,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-09-18 16:06:28.677272-04:00</t>
+          <t>2022-09-18 16:06:28.677272</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022-09-18 16:06:28.677272-04:00</t>
+          <t>2022-09-18 16:06:28.677272</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -901,12 +901,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-09-23 12:14:00.701361-04:00</t>
+          <t>2022-09-23 12:14:00.701361</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022-09-23 12:14:00.701361-04:00</t>
+          <t>2022-09-23 12:14:00.701361</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -931,12 +931,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-09-27 12:55:42.812743-04:00</t>
+          <t>2022-09-27 12:55:42.812743</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022-09-27 12:55:42.812743-04:00</t>
+          <t>2022-09-27 12:55:42.812743</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -961,12 +961,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-09-28 12:45:59.292628-04:00</t>
+          <t>2022-09-28 12:45:59.292628</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022-09-28 12:45:59.292628-04:00</t>
+          <t>2022-09-28 12:45:59.292628</t>
         </is>
       </c>
       <c r="D18" t="n">
